--- a/DESAFIO-FS-BDBI/Desafio Final Excel/Desafio Final Excel(RESOLVIDO).xlsx
+++ b/DESAFIO-FS-BDBI/Desafio Final Excel/Desafio Final Excel(RESOLVIDO).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\WORKSHOP_FS_23_2\DESAFIO-FS-BDBI\Desafio Final Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A32BF4-A713-4181-AEC8-F88BD127A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A57C00-010F-49E5-8862-292BB1C013A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="5" r:id="rId1"/>
@@ -5485,8 +5485,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,7 +5680,10 @@
         <f>UPPER(TRIM(CLEAN(E3)))</f>
         <v>INV</v>
       </c>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="58" t="str">
+        <f t="shared" ref="Q3:Q66" si="5">F3</f>
+        <v> 1021.02</v>
+      </c>
       <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -5738,7 +5741,10 @@
         <f>UPPER(TRIM(CLEAN(E4)))</f>
         <v>INV</v>
       </c>
-      <c r="Q4" s="58"/>
+      <c r="Q4" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v> 409.53</v>
+      </c>
       <c r="R4" s="57"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -5796,6 +5802,10 @@
         <f>UPPER(TRIM(CLEAN(E5)))</f>
         <v>CR</v>
       </c>
+      <c r="Q5" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v> 234.96</v>
+      </c>
       <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -5850,8 +5860,12 @@
         <v>Melbou</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P69" si="5">UPPER(TRIM(CLEAN(E6)))</f>
+        <f t="shared" ref="P6:P69" si="6">UPPER(TRIM(CLEAN(E6)))</f>
         <v>CR</v>
+      </c>
+      <c r="Q6" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v> 450.12</v>
       </c>
       <c r="R6" s="57"/>
     </row>
@@ -5907,8 +5921,12 @@
         <v>Melbou</v>
       </c>
       <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q7" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 114.18</v>
       </c>
       <c r="R7" s="57"/>
     </row>
@@ -5964,8 +5982,12 @@
         <v>Melbou</v>
       </c>
       <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q8" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 930.93</v>
       </c>
       <c r="R8" s="57"/>
     </row>
@@ -6021,8 +6043,12 @@
         <v>Sydney</v>
       </c>
       <c r="P9" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q9" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 466.29</v>
       </c>
       <c r="R9" s="57"/>
     </row>
@@ -6078,8 +6104,12 @@
         <v>Sydney</v>
       </c>
       <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q10" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 222.42</v>
       </c>
       <c r="R10" s="57"/>
     </row>
@@ -6135,8 +6165,12 @@
         <v>Sydney</v>
       </c>
       <c r="P11" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q11" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 679.80</v>
       </c>
       <c r="R11" s="57"/>
     </row>
@@ -6192,8 +6226,12 @@
         <v>Sydney</v>
       </c>
       <c r="P12" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q12" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 171.93</v>
       </c>
       <c r="R12" s="57"/>
     </row>
@@ -6249,8 +6287,12 @@
         <v>Melbou</v>
       </c>
       <c r="P13" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q13" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 623.70</v>
       </c>
       <c r="R13" s="4"/>
     </row>
@@ -6306,8 +6348,12 @@
         <v>Melbou</v>
       </c>
       <c r="P14" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q14" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 221.10</v>
       </c>
       <c r="R14" s="4"/>
     </row>
@@ -6363,8 +6409,12 @@
         <v>Melbou</v>
       </c>
       <c r="P15" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q15" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 393.36</v>
       </c>
       <c r="R15" s="57"/>
     </row>
@@ -6420,8 +6470,12 @@
         <v>Melbou</v>
       </c>
       <c r="P16" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q16" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 642.18</v>
       </c>
       <c r="R16" s="4"/>
     </row>
@@ -6477,8 +6531,12 @@
         <v>Melbou</v>
       </c>
       <c r="P17" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q17" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 499.95</v>
       </c>
       <c r="R17" s="4"/>
     </row>
@@ -6534,8 +6592,12 @@
         <v>Melbou</v>
       </c>
       <c r="P18" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q18" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 299.64</v>
       </c>
       <c r="R18" s="4"/>
     </row>
@@ -6591,8 +6653,12 @@
         <v>Sydney</v>
       </c>
       <c r="P19" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q19" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 312.84</v>
       </c>
       <c r="R19" s="4"/>
     </row>
@@ -6648,8 +6714,12 @@
         <v>Sydney</v>
       </c>
       <c r="P20" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q20" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 993.63</v>
       </c>
       <c r="R20" s="4"/>
     </row>
@@ -6705,8 +6775,12 @@
         <v>Sydney</v>
       </c>
       <c r="P21" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q21" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1053.69</v>
       </c>
       <c r="R21" s="4"/>
     </row>
@@ -6762,8 +6836,12 @@
         <v>Melbou</v>
       </c>
       <c r="P22" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q22" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1047.75</v>
       </c>
       <c r="R22" s="4"/>
     </row>
@@ -6819,8 +6897,12 @@
         <v>Sydney</v>
       </c>
       <c r="P23" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q23" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1096.92</v>
       </c>
       <c r="R23" s="4"/>
     </row>
@@ -6876,8 +6958,12 @@
         <v>Sydney</v>
       </c>
       <c r="P24" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q24" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 257.07</v>
       </c>
       <c r="R24" s="4"/>
     </row>
@@ -6933,8 +7019,12 @@
         <v>Sydney</v>
       </c>
       <c r="P25" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q25" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 215.49</v>
       </c>
       <c r="R25" s="4"/>
     </row>
@@ -6990,8 +7080,12 @@
         <v>Sydney</v>
       </c>
       <c r="P26" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q26" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 455.07</v>
       </c>
       <c r="R26" s="4"/>
     </row>
@@ -7047,8 +7141,12 @@
         <v>Sydney</v>
       </c>
       <c r="P27" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q27" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 711.81</v>
       </c>
       <c r="R27" s="4"/>
     </row>
@@ -7104,8 +7202,12 @@
         <v>Melbou</v>
       </c>
       <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q28" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 78.54</v>
       </c>
       <c r="R28" s="4"/>
     </row>
@@ -7161,8 +7263,12 @@
         <v>Melbou</v>
       </c>
       <c r="P29" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q29" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 302.61</v>
       </c>
       <c r="R29" s="4"/>
     </row>
@@ -7218,8 +7324,12 @@
         <v>Melbou</v>
       </c>
       <c r="P30" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q30" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 426.03</v>
       </c>
       <c r="R30" s="4"/>
     </row>
@@ -7275,8 +7385,12 @@
         <v>Sydney</v>
       </c>
       <c r="P31" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q31" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 489.72</v>
       </c>
       <c r="R31" s="4"/>
     </row>
@@ -7332,8 +7446,12 @@
         <v>Sydney</v>
       </c>
       <c r="P32" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q32" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 352.44</v>
       </c>
       <c r="R32" s="4"/>
     </row>
@@ -7389,8 +7507,12 @@
         <v>Sydney</v>
       </c>
       <c r="P33" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q33" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 238.59</v>
       </c>
       <c r="R33" s="4"/>
     </row>
@@ -7446,8 +7568,12 @@
         <v>Melbou</v>
       </c>
       <c r="P34" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q34" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 549.12</v>
       </c>
       <c r="R34" s="4"/>
     </row>
@@ -7503,8 +7629,12 @@
         <v>Sydney</v>
       </c>
       <c r="P35" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q35" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 322.41</v>
       </c>
       <c r="R35" s="4"/>
     </row>
@@ -7560,8 +7690,12 @@
         <v>Melbou</v>
       </c>
       <c r="P36" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q36" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 644.82</v>
       </c>
       <c r="R36" s="4"/>
     </row>
@@ -7617,8 +7751,12 @@
         <v>Melbou</v>
       </c>
       <c r="P37" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q37" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 113.19</v>
       </c>
       <c r="R37" s="4"/>
     </row>
@@ -7674,8 +7812,12 @@
         <v>Melbou</v>
       </c>
       <c r="P38" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q38" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 449.13</v>
       </c>
       <c r="R38" s="4"/>
     </row>
@@ -7731,8 +7873,12 @@
         <v>Sydney</v>
       </c>
       <c r="P39" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q39" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 819.06</v>
       </c>
       <c r="R39" s="4"/>
     </row>
@@ -7788,8 +7934,12 @@
         <v>Sydney</v>
       </c>
       <c r="P40" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q40" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1019.04</v>
       </c>
       <c r="R40" s="4"/>
     </row>
@@ -7845,8 +7995,12 @@
         <v>Melbou</v>
       </c>
       <c r="P41" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q41" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 736.23</v>
       </c>
       <c r="R41" s="4"/>
     </row>
@@ -7902,8 +8056,12 @@
         <v>Melbou</v>
       </c>
       <c r="P42" t="str">
+        <f t="shared" si="6"/>
+        <v>CR</v>
+      </c>
+      <c r="Q42" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>CR</v>
+        <v> 600.27</v>
       </c>
       <c r="R42" s="4"/>
     </row>
@@ -7959,8 +8117,12 @@
         <v>Melbou</v>
       </c>
       <c r="P43" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q43" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 480.81</v>
       </c>
       <c r="R43" s="4"/>
     </row>
@@ -8016,8 +8178,12 @@
         <v>Sydney</v>
       </c>
       <c r="P44" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q44" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 253.77</v>
       </c>
       <c r="R44" s="4"/>
     </row>
@@ -8073,8 +8239,12 @@
         <v>Melbou</v>
       </c>
       <c r="P45" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q45" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 442.86</v>
       </c>
       <c r="R45" s="4"/>
     </row>
@@ -8130,8 +8300,12 @@
         <v>Sydney</v>
       </c>
       <c r="P46" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q46" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 630.96</v>
       </c>
       <c r="R46" s="4"/>
     </row>
@@ -8187,8 +8361,12 @@
         <v>Melbou</v>
       </c>
       <c r="P47" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q47" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 821.37</v>
       </c>
       <c r="R47" s="4"/>
     </row>
@@ -8244,8 +8422,12 @@
         <v>Melbou</v>
       </c>
       <c r="P48" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q48" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 950.73</v>
       </c>
       <c r="R48" s="4"/>
     </row>
@@ -8301,8 +8483,12 @@
         <v>Sydney</v>
       </c>
       <c r="P49" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q49" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 956.34</v>
       </c>
       <c r="R49" s="4"/>
     </row>
@@ -8358,8 +8544,12 @@
         <v>Sydney</v>
       </c>
       <c r="P50" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q50" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1094.28</v>
       </c>
       <c r="R50" s="4"/>
     </row>
@@ -8415,8 +8605,12 @@
         <v>Melbou</v>
       </c>
       <c r="P51" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q51" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 628.98</v>
       </c>
       <c r="R51" s="4"/>
     </row>
@@ -8472,8 +8666,12 @@
         <v>Sydney</v>
       </c>
       <c r="P52" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q52" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1058.31</v>
       </c>
       <c r="R52" s="4"/>
     </row>
@@ -8529,8 +8727,12 @@
         <v>Sydney</v>
       </c>
       <c r="P53" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q53" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 705.54</v>
       </c>
       <c r="R53" s="4"/>
     </row>
@@ -8586,8 +8788,12 @@
         <v>Sydney</v>
       </c>
       <c r="P54" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q54" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 138.60</v>
       </c>
       <c r="R54" s="4"/>
     </row>
@@ -8643,8 +8849,12 @@
         <v>Melbou</v>
       </c>
       <c r="P55" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q55" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 417.12</v>
       </c>
       <c r="R55" s="4"/>
     </row>
@@ -8700,8 +8910,12 @@
         <v>Sydney</v>
       </c>
       <c r="P56" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q56" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 422.73</v>
       </c>
       <c r="R56" s="4"/>
     </row>
@@ -8757,8 +8971,12 @@
         <v>Melbou</v>
       </c>
       <c r="P57" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q57" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1061.94</v>
       </c>
       <c r="R57" s="4"/>
     </row>
@@ -8814,8 +9032,12 @@
         <v>Melbou</v>
       </c>
       <c r="P58" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q58" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 602.58</v>
       </c>
       <c r="R58" s="4"/>
     </row>
@@ -8871,8 +9093,12 @@
         <v>Melbou</v>
       </c>
       <c r="P59" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q59" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 132.66</v>
       </c>
       <c r="R59" s="4"/>
     </row>
@@ -8928,8 +9154,12 @@
         <v>Melbou</v>
       </c>
       <c r="P60" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q60" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 56.43</v>
       </c>
       <c r="R60" s="4"/>
     </row>
@@ -8985,8 +9215,12 @@
         <v>Sydney</v>
       </c>
       <c r="P61" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q61" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 511.83</v>
       </c>
       <c r="R61" s="4"/>
     </row>
@@ -9042,8 +9276,12 @@
         <v>Sydney</v>
       </c>
       <c r="P62" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q62" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 361.02</v>
       </c>
       <c r="R62" s="4"/>
     </row>
@@ -9099,8 +9337,12 @@
         <v>Melbou</v>
       </c>
       <c r="P63" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q63" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 668.25</v>
       </c>
       <c r="R63" s="4"/>
     </row>
@@ -9156,8 +9398,12 @@
         <v>Sydney</v>
       </c>
       <c r="P64" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q64" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 126.72</v>
       </c>
       <c r="R64" s="4"/>
     </row>
@@ -9213,8 +9459,12 @@
         <v>Melbou</v>
       </c>
       <c r="P65" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q65" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 1000.23</v>
       </c>
       <c r="R65" s="4"/>
     </row>
@@ -9270,8 +9520,12 @@
         <v>Melbou</v>
       </c>
       <c r="P66" t="str">
+        <f t="shared" si="6"/>
+        <v>INV</v>
+      </c>
+      <c r="Q66" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>INV</v>
+        <v> 948.75</v>
       </c>
       <c r="R66" s="4"/>
     </row>
@@ -9307,28 +9561,32 @@
         <v>33</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K85" si="6">CONCATENATE(A67,"_",B67)</f>
+        <f t="shared" ref="K67:K85" si="7">CONCATENATE(A67,"_",B67)</f>
         <v>24854_1</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L85" si="7">CONCATENATE(H67,"-",I67,"-",J67)</f>
+        <f t="shared" ref="L67:L85" si="8">CONCATENATE(H67,"-",I67,"-",J67)</f>
         <v>2554-4551221-33</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M98" si="8">LEFT(D67,3)</f>
+        <f t="shared" ref="M67:M98" si="9">LEFT(D67,3)</f>
         <v>Mar</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N98" si="9">RIGHT(G67,6)</f>
+        <f t="shared" ref="N67:N98" si="10">RIGHT(G67,6)</f>
         <v>322800</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O85" si="10">MID(G67,4,6)</f>
+        <f t="shared" ref="O67:O85" si="11">MID(G67,4,6)</f>
         <v>Melbou</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>INV</v>
+      </c>
+      <c r="Q67" s="58" t="str">
+        <f t="shared" ref="Q67:Q85" si="12">F67</f>
+        <v> 446.49</v>
       </c>
       <c r="R67" s="4"/>
     </row>
@@ -9364,28 +9622,32 @@
         <v>33</v>
       </c>
       <c r="K68" t="str">
+        <f t="shared" si="7"/>
+        <v>24857_1</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="8"/>
+        <v>2554-4551221-33</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="9"/>
+        <v>Abr</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="10"/>
+        <v>321358</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="11"/>
+        <v>Melbou</v>
+      </c>
+      <c r="P68" t="str">
         <f t="shared" si="6"/>
-        <v>24857_1</v>
-      </c>
-      <c r="L68" t="str">
-        <f t="shared" si="7"/>
-        <v>2554-4551221-33</v>
-      </c>
-      <c r="M68" t="str">
-        <f t="shared" si="8"/>
-        <v>Abr</v>
-      </c>
-      <c r="N68" t="str">
-        <f t="shared" si="9"/>
-        <v>321358</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="10"/>
-        <v>Melbou</v>
-      </c>
-      <c r="P68" t="str">
-        <f t="shared" si="5"/>
         <v>INV</v>
+      </c>
+      <c r="Q68" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 242.22</v>
       </c>
       <c r="R68" s="4"/>
     </row>
@@ -9421,28 +9683,32 @@
         <v>33</v>
       </c>
       <c r="K69" t="str">
+        <f t="shared" si="7"/>
+        <v>24861_1</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="8"/>
+        <v>2554-4551221-33</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="9"/>
+        <v>Fev</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="10"/>
+        <v>316190</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="11"/>
+        <v>Melbou</v>
+      </c>
+      <c r="P69" t="str">
         <f t="shared" si="6"/>
-        <v>24861_1</v>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" si="7"/>
-        <v>2554-4551221-33</v>
-      </c>
-      <c r="M69" t="str">
-        <f t="shared" si="8"/>
-        <v>Fev</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="9"/>
-        <v>316190</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="10"/>
-        <v>Melbou</v>
-      </c>
-      <c r="P69" t="str">
-        <f t="shared" si="5"/>
         <v>INV</v>
+      </c>
+      <c r="Q69" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 600.60</v>
       </c>
       <c r="R69" s="4"/>
     </row>
@@ -9478,28 +9744,32 @@
         <v>33</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24863_1</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2554-4551221-33</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>327938</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Melbou</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" ref="P70:P98" si="11">UPPER(TRIM(CLEAN(E70)))</f>
+        <f t="shared" ref="P70:P98" si="13">UPPER(TRIM(CLEAN(E70)))</f>
         <v>INV</v>
+      </c>
+      <c r="Q70" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 546.81</v>
       </c>
       <c r="R70" s="4"/>
     </row>
@@ -9535,28 +9805,32 @@
         <v>72</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24866_1</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>234487</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q71" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 840.51</v>
       </c>
       <c r="R71" s="4"/>
     </row>
@@ -9592,28 +9866,32 @@
         <v>72</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24870_1</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Abr</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>231274</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q72" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 603.57</v>
       </c>
       <c r="R72" s="4"/>
     </row>
@@ -9649,28 +9927,32 @@
         <v>72</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24873_1</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>224955</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q73" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 816.75</v>
       </c>
       <c r="R73" s="4"/>
     </row>
@@ -9706,28 +9988,32 @@
         <v>72</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24875_1</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>217275</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q74" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 1065.57</v>
       </c>
       <c r="R74" s="4"/>
     </row>
@@ -9763,28 +10049,32 @@
         <v>72</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24876_1</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>226240</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q75" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 523.38</v>
       </c>
       <c r="R75" s="4"/>
     </row>
@@ -9820,28 +10110,32 @@
         <v>33</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24877_1</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2554-4551221-33</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Fev</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>325643</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Melbou</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q76" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 650.43</v>
       </c>
       <c r="R76" s="4"/>
     </row>
@@ -9877,28 +10171,32 @@
         <v>33</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24878_1</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2554-4551221-33</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Abr</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>312800</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Melbou</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q77" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 809.49</v>
       </c>
       <c r="R77" s="4"/>
     </row>
@@ -9934,28 +10232,32 @@
         <v>33</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24880_1</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2554-4551221-33</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>338807</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Melbou</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q78" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 424.38</v>
       </c>
       <c r="R78" s="4"/>
     </row>
@@ -9991,28 +10293,32 @@
         <v>72</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24882_1</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Abr</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>239476</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q79" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 955.68</v>
       </c>
       <c r="R79" s="4"/>
     </row>
@@ -10048,28 +10354,32 @@
         <v>72</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24885_1</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Abr</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>213693</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q80" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 764.28</v>
       </c>
       <c r="R80" s="4"/>
     </row>
@@ -10105,28 +10415,32 @@
         <v>72</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24887_1</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>235040</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q81" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 335.61</v>
       </c>
       <c r="R81" s="4"/>
     </row>
@@ -10162,28 +10476,32 @@
         <v>72</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24891_1</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>211771</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q82" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 763.29</v>
       </c>
       <c r="R82" s="4"/>
     </row>
@@ -10219,28 +10537,32 @@
         <v>33</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24893_1</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2554-4551221-33</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>326543</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Melbou</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q83" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 446.16</v>
       </c>
       <c r="R83" s="4"/>
     </row>
@@ -10276,28 +10598,32 @@
         <v>33</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24898_1</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2554-4551221-33</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>338553</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Melbou</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q84" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 1032.24</v>
       </c>
       <c r="R84" s="4"/>
     </row>
@@ -10333,28 +10659,32 @@
         <v>72</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24902_1</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1641-7654320-72</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Mar</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>213342</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sydney</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INV</v>
+      </c>
+      <c r="Q85" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v> 533.28</v>
       </c>
       <c r="R85" s="4"/>
     </row>
@@ -10362,15 +10692,15 @@
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N86" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N86" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P86" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R86" s="4"/>
@@ -10379,15 +10709,15 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N87" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N87" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R87" s="4"/>
@@ -10396,15 +10726,15 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P88" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R88" s="4"/>
@@ -10413,15 +10743,15 @@
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N89" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N89" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P89" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R89" s="4"/>
@@ -10430,15 +10760,15 @@
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N90" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N90" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P90" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R90" s="4"/>
@@ -10447,15 +10777,15 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N91" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N91" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P91" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R91" s="4"/>
@@ -10464,15 +10794,15 @@
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N92" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N92" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P92" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R92" s="4"/>
@@ -10481,15 +10811,15 @@
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N93" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P93" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R93" s="4"/>
@@ -10498,15 +10828,15 @@
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N94" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N94" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P94" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R94" s="4"/>
@@ -10515,15 +10845,15 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N95" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N95" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P95" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R95" s="4"/>
@@ -10532,15 +10862,15 @@
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N96" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N96" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P96" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R96" s="4"/>
@@ -10549,15 +10879,15 @@
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N97" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N97" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R97" s="4"/>
@@ -10566,15 +10896,15 @@
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N98" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="N98" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P98" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R98" s="4"/>
@@ -10590,7 +10920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668326AA-2822-49D6-A7A5-1260C4D29099}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/DESAFIO-FS-BDBI/Desafio Final Excel/Desafio Final Excel(RESOLVIDO).xlsx
+++ b/DESAFIO-FS-BDBI/Desafio Final Excel/Desafio Final Excel(RESOLVIDO).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\WORKSHOP_FS_23_2\DESAFIO-FS-BDBI\Desafio Final Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A57C00-010F-49E5-8862-292BB1C013A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5252C6-6138-495C-AD2E-A39CBCF47A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5485,8 +5485,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q85"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,7 +5612,7 @@
         <v>223809</v>
       </c>
       <c r="O2" t="str">
-        <f>MID(G2,4,6)</f>
+        <f>SUBSTITUTE(MID(G2,4,6), "Melbou", "Melbourne")</f>
         <v>Sydney</v>
       </c>
       <c r="P2" t="str">
@@ -5673,8 +5673,8 @@
         <v>327600</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="4">MID(G3,4,6)</f>
-        <v>Melbou</v>
+        <f t="shared" ref="O3:O66" si="4">SUBSTITUTE(MID(G3,4,6), "Melbou", "Melbourne")</f>
+        <v>Melbourne</v>
       </c>
       <c r="P3" t="str">
         <f>UPPER(TRIM(CLEAN(E3)))</f>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P4" t="str">
         <f>UPPER(TRIM(CLEAN(E4)))</f>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P5" t="str">
         <f>UPPER(TRIM(CLEAN(E5)))</f>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" ref="P6:P69" si="6">UPPER(TRIM(CLEAN(E6)))</f>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="6"/>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="6"/>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="6"/>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="6"/>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="6"/>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="6"/>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="6"/>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="6"/>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="6"/>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="6"/>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="6"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="6"/>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="6"/>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="6"/>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="6"/>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="6"/>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="6"/>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P42" t="str">
         <f t="shared" si="6"/>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="6"/>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P45" t="str">
         <f t="shared" si="6"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="O47" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P47" t="str">
         <f t="shared" si="6"/>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P48" t="str">
         <f t="shared" si="6"/>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="O51" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P51" t="str">
         <f t="shared" si="6"/>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="O55" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P55" t="str">
         <f t="shared" si="6"/>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="O57" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P57" t="str">
         <f t="shared" si="6"/>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="O58" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P58" t="str">
         <f t="shared" si="6"/>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="O59" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P59" t="str">
         <f t="shared" si="6"/>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="O60" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P60" t="str">
         <f t="shared" si="6"/>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O63" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P63" t="str">
         <f t="shared" si="6"/>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="O65" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P65" t="str">
         <f t="shared" si="6"/>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="O66" t="str">
         <f t="shared" si="4"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P66" t="str">
         <f t="shared" si="6"/>
@@ -9577,8 +9577,8 @@
         <v>322800</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O85" si="11">MID(G67,4,6)</f>
-        <v>Melbou</v>
+        <f t="shared" ref="O67:O85" si="11">SUBSTITUTE(MID(G67,4,6), "Melbou", "Melbourne")</f>
+        <v>Melbourne</v>
       </c>
       <c r="P67" t="str">
         <f t="shared" si="6"/>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="O68" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P68" t="str">
         <f t="shared" si="6"/>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="O69" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P69" t="str">
         <f t="shared" si="6"/>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="O70" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" ref="P70:P98" si="13">UPPER(TRIM(CLEAN(E70)))</f>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="O76" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P76" t="str">
         <f t="shared" si="13"/>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="O77" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P77" t="str">
         <f t="shared" si="13"/>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="O78" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P78" t="str">
         <f t="shared" si="13"/>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="O83" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P83" t="str">
         <f t="shared" si="13"/>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="O84" t="str">
         <f t="shared" si="11"/>
-        <v>Melbou</v>
+        <v>Melbourne</v>
       </c>
       <c r="P84" t="str">
         <f t="shared" si="13"/>
